--- a/data/BTGI3_codebook.xlsx
+++ b/data/BTGI3_codebook.xlsx
@@ -2495,10 +2495,10 @@
   <dimension ref="A1:L321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C241" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C245" sqref="C245"/>
+      <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
